--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214665AF-8CFB-42D9-8E35-64B4464886BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{891F0441-6113-4563-9CC0-E3FC6D27DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -946,12 +946,10 @@
     <t>Unclear</t>
   </si>
   <si>
+    <t>0300.HK</t>
+  </si>
+  <si>
     <t>美的集團</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0300.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
@@ -978,7 +976,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1171,13 +1169,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1523,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2200,9 +2191,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3576,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,15 +3586,15 @@
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="285" t="s">
-        <v>263</v>
+      <c r="C5" s="192" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4848,7 +4836,7 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>69.349999999999994</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4943,7 +4931,7 @@
       </c>
       <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>530920.9283060499</v>
+        <v>113150.84612245474</v>
       </c>
       <c r="H5" s="273"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5175,7 +5163,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>4.7673233377248998E-2</v>
+        <v>0.20905611235465346</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5237,20 +5225,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.493313623245854</v>
+        <v>46.856172344678654</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.080572264632806</v>
+        <v>90.066025448842126</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.939628056202444</v>
+        <v>78.318282998993155</v>
       </c>
       <c r="H29" s="272"/>
     </row>
@@ -10252,8 +10240,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12122,17 +12110,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7673233377248998E-2</v>
+        <v>0.20905611235465346</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7673233377248998E-2</v>
+        <v>0.20905611235465346</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7673233377248998E-2</v>
+        <v>0.20905611235465346</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12243,14 +12231,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.958591060949651</v>
+        <v>110.87588120495072</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.958591060949651</v>
+        <v>110.87588120495072</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12318,21 +12306,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220603296.25760058</v>
+        <v>422018279.28419459</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.939628056202444</v>
+        <v>78.318282998993155</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12369,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220603296.25760058</v>
+        <v>422018279.28419459</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.493313623245854</v>
+        <v>46.856172344678654</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.815663086171593</v>
+        <v>55.124908640798417</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.939628056202444</v>
+        <v>78.318282998993155</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12491,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110301648.12880029</v>
+        <v>211009139.64209729</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.246656811622927</v>
+        <v>23.428086172339327</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.407831543085797</v>
+        <v>27.562454320399208</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.407831543085797</v>
+        <v>27.562454320399208</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.407831543085797</v>
+        <v>27.562454320399208</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.469814028101222</v>
+        <v>39.159141499496577</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891F0441-6113-4563-9CC0-E3FC6D27DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52007F8-438C-429B-B431-B3DBFDCC288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -944,6 +941,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0300.HK</t>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>263</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>264</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3624,15 +3628,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>7655673083</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>265</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,7 +3676,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>266</v>
@@ -3689,55 +3693,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3883,7 +3887,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>3372815</v>
@@ -4135,7 +4139,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="251"/>
@@ -4151,7 +4155,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4200,13 +4204,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4548,7 +4552,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4566,7 +4570,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4574,26 +4578,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4602,10 +4606,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4654,7 +4658,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4675,7 +4679,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4693,7 +4697,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4750,7 +4754,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4837,7 +4841,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4878,19 +4882,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4898,42 +4902,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>113150.84612245474</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>530920.9283060499</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4956,16 +4960,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4980,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4990,40 +4994,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5036,29 +5040,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5068,12 +5072,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5083,7 +5087,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5091,7 +5095,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5105,7 +5109,7 @@
         <v>0.73672180139004328</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5124,14 +5128,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5143,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5159,16 +5163,16 @@
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.20905611235465346</v>
+        <v>262</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>20.904684186376457</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5191,7 +5195,7 @@
         <v>8.4396594173019507E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5212,12 +5216,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5225,42 +5229,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>46.856172344678654</v>
+        <v>24.596142910796218</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>90.066025448842126</v>
+        <v>47.278228726224874</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>55.124908640798417</v>
-      </c>
-      <c r="G29" s="272">
+        <v>28.936638718583787</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>78.318282998993155</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>41.111503240195546</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5270,7 +5274,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5281,14 +5285,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5298,7 +5302,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5308,14 +5312,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5325,7 +5329,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5340,14 +5344,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6332,16 +6336,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6359,7 +6363,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6392,7 +6396,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6759,7 +6763,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6810,7 +6814,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6861,7 +6865,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6912,7 +6916,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7014,7 +7018,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7167,7 +7171,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8238,7 +8242,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8307,7 +8311,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8511,7 +8515,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10409,7 +10413,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11461,11 +11465,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11476,11 +11480,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11492,11 +11496,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11710,19 +11714,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11732,18 +11736,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11820,7 +11824,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11880,7 +11884,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11943,7 +11947,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11973,7 +11977,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12106,28 +12110,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20905611235465346</v>
+        <v>4.7836168730628237E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20905611235465346</v>
+        <v>4.7836168730628237E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20905611235465346</v>
+        <v>4.7836168730628237E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12157,7 +12161,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12202,15 +12206,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12227,24 +12231,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>110.87588120495072</v>
+        <v>58.201916268714271</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>110.87588120495072</v>
+        <v>58.201916268714271</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12252,14 +12256,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12282,14 +12286,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12306,21 +12310,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>422018279.28419459</v>
+        <v>221529446.15035751</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>55.124908640798417</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>55.124908640798417</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>78.318282998993155</v>
+        <v>41.111503240195546</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,27 +12373,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>422018279.28419459</v>
+        <v>221529446.15035751</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>46.856172344678654</v>
+        <v>24.596142910796218</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>55.124908640798417</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>55.124908640798417</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>55.124908640798417</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>78.318282998993155</v>
+        <v>41.111503240195546</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12406,14 +12410,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12460,21 +12464,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12487,31 +12491,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>211009139.64209729</v>
+        <v>110764723.07517876</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>23.428086172339327</v>
+        <v>12.298071455398109</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>27.562454320399208</v>
+        <v>14.468319359291893</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>27.562454320399208</v>
+        <v>14.468319359291893</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>27.562454320399208</v>
+        <v>14.468319359291893</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>39.159141499496577</v>
+        <v>20.555751620097773</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52007F8-438C-429B-B431-B3DBFDCC288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AE77F6-E619-42F8-9FC6-7ABA3C513395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -957,6 +954,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3582,28 +3583,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45625</v>
@@ -3611,7 +3612,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3619,24 +3620,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>7655673083</v>
@@ -3644,15 +3645,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3676,15 +3677,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3693,61 +3694,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3796,7 +3797,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>373709804</v>
@@ -3818,7 +3819,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>275320160</v>
@@ -3840,7 +3841,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>34880794+13975965</f>
@@ -3865,7 +3866,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>14586346</v>
@@ -3887,7 +3888,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>3372815</v>
@@ -3909,7 +3910,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>25417</v>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4059,7 +4060,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4123,7 +4124,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4139,7 +4140,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="251"/>
@@ -4155,7 +4156,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4204,21 +4205,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4228,7 +4229,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4238,7 +4239,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4249,7 +4250,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4259,7 +4260,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4269,7 +4270,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4280,7 +4281,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4290,7 +4291,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4301,7 +4302,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4309,24 +4310,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4337,7 +4338,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4348,7 +4349,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4359,7 +4360,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4370,7 +4371,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4381,7 +4382,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4392,7 +4393,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4402,31 +4403,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4434,12 +4435,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4450,7 +4451,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4461,7 +4462,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4471,7 +4472,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4482,7 +4483,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4492,85 +4493,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4578,15 +4579,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4594,10 +4595,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4607,19 +4608,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4637,7 +4638,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4679,7 +4680,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4736,7 +4737,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4754,7 +4755,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4882,7 +4883,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4894,15 +4895,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>69.349999999999994</v>
+        <v>70.75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4911,7 +4912,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4931,11 +4932,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>530920.9283060499</v>
+        <v>541638.87062225002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4943,7 +4944,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4958,7 +4959,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4981,10 +4982,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4994,40 +4995,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5040,29 +5041,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5072,12 +5073,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5087,29 +5088,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.73672180139004328</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5117,7 +5118,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5128,26 +5129,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5156,30 +5157,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.904684186376457</v>
+        <v>21.350997034196894</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5188,14 +5189,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>8.4396594173019507E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5206,43 +5207,43 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.596142910796218</v>
+        <v>24.451145783291548</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.278228726224874</v>
+        <v>46.999518060748848</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.111503240195546</v>
+        <v>40.869146139781613</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5250,21 +5251,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5274,7 +5275,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5285,14 +5286,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5302,7 +5303,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5312,14 +5313,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5329,7 +5330,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5344,14 +5345,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6331,21 +6332,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6356,14 +6357,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6385,7 +6386,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6396,7 +6397,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6407,7 +6408,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6457,7 +6458,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6508,7 +6509,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6559,7 +6560,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6610,7 +6611,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6661,7 +6662,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6712,7 +6713,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6763,7 +6764,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6814,7 +6815,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6865,7 +6866,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6916,7 +6917,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6967,7 +6968,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7018,7 +7019,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7069,7 +7070,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7120,7 +7121,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7171,7 +7172,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7222,7 +7223,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7273,7 +7274,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7324,7 +7325,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7375,7 +7376,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7426,7 +7427,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7477,7 +7478,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7528,7 +7529,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7579,7 +7580,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7630,7 +7631,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7681,7 +7682,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7732,7 +7733,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7783,7 +7784,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7834,7 +7835,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7885,7 +7886,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7936,7 +7937,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7987,7 +7988,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8038,7 +8039,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8089,7 +8090,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8140,7 +8141,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8191,7 +8192,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8242,7 +8243,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8260,7 +8261,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8311,7 +8312,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8362,7 +8363,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8413,7 +8414,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8464,7 +8465,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8515,7 +8516,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8566,7 +8567,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8617,7 +8618,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8635,7 +8636,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8686,7 +8687,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8737,7 +8738,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8754,7 +8755,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8804,7 +8805,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8854,7 +8855,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8904,7 +8905,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10263,7 +10264,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10273,12 +10274,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10292,7 +10293,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10302,7 +10303,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10320,10 +10321,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10333,7 +10334,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10347,7 +10348,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10358,7 +10359,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10370,7 +10371,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10388,7 +10389,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10407,32 +10408,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10449,7 +10450,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10460,7 +10461,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10477,7 +10478,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10488,7 +10489,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10505,7 +10506,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10516,7 +10517,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10533,7 +10534,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10544,7 +10545,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10561,7 +10562,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10571,7 +10572,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10593,7 +10594,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10615,7 +10616,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10636,7 +10637,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10661,7 +10662,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10688,7 +10689,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10709,7 +10710,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10726,7 +10727,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10738,13 +10739,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10766,7 +10767,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10786,7 +10787,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10795,7 +10796,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10815,7 +10816,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10828,7 +10829,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10848,7 +10849,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10861,7 +10862,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10878,7 +10879,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10894,7 +10895,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10903,7 +10904,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10919,7 +10920,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10929,7 +10930,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10946,7 +10947,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10956,7 +10957,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10973,7 +10974,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10983,7 +10984,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11003,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11013,7 +11014,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11030,7 +11031,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11040,7 +11041,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11066,7 +11067,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11093,7 +11094,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11120,7 +11121,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11141,7 +11142,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11162,7 +11163,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11183,7 +11184,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11204,7 +11205,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11221,7 +11222,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11239,7 +11240,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11258,7 +11259,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11277,7 +11278,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11294,7 +11295,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11307,7 +11308,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11324,7 +11325,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11337,7 +11338,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11354,7 +11355,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11364,7 +11365,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11381,7 +11382,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11397,14 +11398,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11416,12 +11417,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11451,7 +11452,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11462,7 +11463,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11477,7 +11478,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11488,12 +11489,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11517,11 +11518,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11531,7 +11532,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11552,7 +11553,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11573,7 +11574,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11594,7 +11595,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11609,7 +11610,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11640,11 +11641,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11654,7 +11655,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11675,7 +11676,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11690,7 +11691,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11712,7 +11713,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11720,15 +11721,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11737,22 +11738,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11773,7 +11774,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11803,7 +11804,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11824,7 +11825,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11854,7 +11855,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11884,7 +11885,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11915,7 +11916,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11942,12 +11943,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11977,7 +11978,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12007,7 +12008,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12037,7 +12038,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12058,7 +12059,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12089,7 +12090,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12110,28 +12111,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7836168730628237E-2</v>
+        <v>4.6836220266357906E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7836168730628237E-2</v>
+        <v>4.6836220266357906E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7836168730628237E-2</v>
+        <v>4.6836220266357906E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12161,7 +12162,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12192,27 +12193,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12231,24 +12232,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>58.201916268714271</v>
+        <v>57.858809192745596</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>58.201916268714271</v>
+        <v>57.858809192745596</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12256,14 +12257,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12286,51 +12287,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>221529446.15035751</v>
+        <v>220223504.26076946</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.111503240195546</v>
+        <v>40.869146139781613</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12348,7 +12349,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12369,31 +12370,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>221529446.15035751</v>
+        <v>220223504.26076946</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.596142910796218</v>
+        <v>24.451145783291548</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.936638718583787</v>
+        <v>28.766053862695937</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>41.111503240195546</v>
+        <v>40.869146139781613</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12403,34 +12404,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12464,58 +12465,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110764723.07517876</v>
+        <v>110111752.13038473</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.298071455398109</v>
+        <v>12.225572891645774</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.468319359291893</v>
+        <v>14.383026931347969</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.468319359291893</v>
+        <v>14.383026931347969</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.468319359291893</v>
+        <v>14.383026931347969</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.555751620097773</v>
+        <v>20.434573069890806</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12524,7 +12525,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AE77F6-E619-42F8-9FC6-7ABA3C513395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F7581F-276E-4F64-BBCA-E1D81DF5698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4805,7 +4805,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>70.75</v>
+        <v>70.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>541638.87062225002</v>
+        <v>542021.65427639999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.350997034196894</v>
+        <v>21.366750307740915</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.451145783291548</v>
+        <v>24.44635327898704</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.999518060748848</v>
+        <v>46.990306001951602</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.869146139781613</v>
+        <v>40.86113565387096</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836220266357906E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836220266357906E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836220266357906E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.858809192745596</v>
+        <v>57.847468677476193</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.858809192745596</v>
+        <v>57.847468677476193</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220223504.26076946</v>
+        <v>220180339.73582339</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.869146139781613</v>
+        <v>40.86113565387096</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220223504.26076946</v>
+        <v>220180339.73582339</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.451145783291548</v>
+        <v>24.44635327898704</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.766053862695937</v>
+        <v>28.760415622337696</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.869146139781613</v>
+        <v>40.86113565387096</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110111752.13038473</v>
+        <v>110090169.8679117</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.225572891645774</v>
+        <v>12.22317663949352</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.383026931347969</v>
+        <v>14.380207811168848</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.383026931347969</v>
+        <v>14.380207811168848</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.383026931347969</v>
+        <v>14.380207811168848</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.434573069890806</v>
+        <v>20.43056782693548</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F7581F-276E-4F64-BBCA-E1D81DF5698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BFEB27-548E-4EE4-9F3F-FD151BA89AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.366750307740915</v>
+        <v>21.36475774251614</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.44635327898704</v>
+        <v>24.449142976142355</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.990306001951602</v>
+        <v>46.995668303702082</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.86113565387096</v>
+        <v>40.865798524958336</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
+        <v>4.6806053785013776E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
+        <v>4.6806053785013776E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
+        <v>4.6806053785013776E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.847468677476193</v>
+        <v>57.854069945034176</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.847468677476193</v>
+        <v>57.854069945034176</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220180339.73582339</v>
+        <v>220205465.62926066</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.86113565387096</v>
+        <v>40.865798524958336</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220180339.73582339</v>
+        <v>220205465.62926066</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.44635327898704</v>
+        <v>24.449142976142355</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.86113565387096</v>
+        <v>40.865798524958336</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110090169.8679117</v>
+        <v>110102732.81463033</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.22317663949352</v>
+        <v>12.224571488071177</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.380207811168848</v>
+        <v>14.381848809495503</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.380207811168848</v>
+        <v>14.381848809495503</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.380207811168848</v>
+        <v>14.381848809495503</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.43056782693548</v>
+        <v>20.432899262479168</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BFEB27-548E-4EE4-9F3F-FD151BA89AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07195477-D8FB-47EC-82B8-A5304CF90CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.36475774251614</v>
+        <v>21.365421889630341</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.449142976142355</v>
+        <v>24.448213065582618</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.995668303702082</v>
+        <v>46.993880847664869</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567787</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.865798524958336</v>
+        <v>40.864244215360756</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6806053785013776E-2</v>
+        <v>4.6804598812314947E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6806053785013776E-2</v>
+        <v>4.6804598812314947E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6806053785013776E-2</v>
+        <v>4.6804598812314947E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.854069945034176</v>
+        <v>57.851869495283516</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.854069945034176</v>
+        <v>57.851869495283516</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220205465.62926066</v>
+        <v>220197090.22779971</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567783</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567783</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.865798524958336</v>
+        <v>40.864244215360756</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220205465.62926066</v>
+        <v>220197090.22779971</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.449142976142355</v>
+        <v>24.448213065582618</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567783</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567787</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.763697618991007</v>
+        <v>28.762603606567787</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.865798524958336</v>
+        <v>40.864244215360756</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110102732.81463033</v>
+        <v>110098545.11389986</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.224571488071177</v>
+        <v>12.224106532791309</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.381848809495503</v>
+        <v>14.381301803283892</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.381848809495503</v>
+        <v>14.381301803283893</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.381848809495503</v>
+        <v>14.381301803283893</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.432899262479168</v>
+        <v>20.432122107680378</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07195477-D8FB-47EC-82B8-A5304CF90CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F401F8FE-79B2-459C-B180-516491C569A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4597,7 +4597,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.365421889630341</v>
+        <v>21.366086078037313</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.448213065582618</v>
+        <v>24.44728316653088</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.993880847664869</v>
+        <v>46.992093413748108</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.762603606567787</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.864244215360756</v>
+        <v>40.862689924998357</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6804598812314947E-2</v>
+        <v>4.6803143839616125E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6804598812314947E-2</v>
+        <v>4.6803143839616125E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6804598812314947E-2</v>
+        <v>4.6803143839616125E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.851869495283516</v>
+        <v>57.849669072764272</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.851869495283516</v>
+        <v>57.849669072764272</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220197090.22779971</v>
+        <v>220188714.92998761</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.762603606567783</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.762603606567783</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.864244215360756</v>
+        <v>40.862689924998357</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220197090.22779971</v>
+        <v>220188714.92998761</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.448213065582618</v>
+        <v>24.44728316653088</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.762603606567783</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.762603606567787</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.762603606567787</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.864244215360756</v>
+        <v>40.862689924998357</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110098545.11389986</v>
+        <v>110094357.4649938</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.224106532791309</v>
+        <v>12.22364158326544</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.381301803283892</v>
+        <v>14.380754803841695</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.381301803283893</v>
+        <v>14.380754803841695</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.381301803283893</v>
+        <v>14.380754803841695</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.432122107680378</v>
+        <v>20.431344962499178</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F401F8FE-79B2-459C-B180-516491C569A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B4CDA4-F30E-47C3-B695-0AEB72022122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5034,7 +5034,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5081,7 +5081,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.366086078037313</v>
+        <v>21.366750307740915</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.44728316653088</v>
+        <v>25.509238204160393</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.992093413748108</v>
+        <v>49.725261945334708</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.862689924998357</v>
+        <v>43.239358213334533</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6803143839616125E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6803143839616125E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6803143839616125E-2</v>
+        <v>4.680168886691731E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>57.849669072764272</v>
+        <v>60.362576011279508</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>57.849669072764272</v>
+        <v>60.362576011279508</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>220188714.92998761</v>
+        <v>229753397.98520702</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.862689924998357</v>
+        <v>43.239358213334533</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>220188714.92998761</v>
+        <v>229753397.98520702</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.44728316653088</v>
+        <v>25.509238204160393</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.862689924998357</v>
+        <v>43.239358213334533</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>110094357.4649938</v>
+        <v>114876698.99260351</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.22364158326544</v>
+        <v>12.754619102080197</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.380754803841695</v>
+        <v>15.005434237741408</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.380754803841695</v>
+        <v>15.005434237741408</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.380754803841695</v>
+        <v>15.005434237741408</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.431344962499178</v>
+        <v>21.619679106667267</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B4CDA4-F30E-47C3-B695-0AEB72022122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD4DC33-2E4A-4ACE-9E1F-EF5E544CBADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45625</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>7655673083</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>260</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,406 +3803,406 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>373709804</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>345708706</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>343360825</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>275320160</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>262321797</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>266450882</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>34880794+13975965</f>
         <v>48856759</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>28715439+12023970</f>
         <v>40739409</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <f>28646188+10742475</f>
         <v>39388663</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>14586346</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>12667099</v>
       </c>
-      <c r="E28" s="151">
+      <c r="E28" s="150">
         <v>12014891</v>
       </c>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>3372815</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>1902422</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>1299556</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>25417</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>258783</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>444448</v>
       </c>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153" t="str">
+      <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4207,10 +4211,10 @@
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4309,7 +4313,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4321,7 +4325,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4341,7 +4345,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4409,7 +4413,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4421,7 +4425,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4434,7 +4438,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4482,14 +4486,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4573,7 +4577,7 @@
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4581,19 +4585,20 @@
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4607,14 +4612,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4626,12 +4631,12 @@
         <f>C25</f>
         <v>373709804</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>373709804</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>373709804</v>
       </c>
@@ -4644,15 +4649,15 @@
         <f>C26</f>
         <v>275320160</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>275320160</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>275320160</v>
       </c>
@@ -4665,15 +4670,15 @@
         <f>C27+C28</f>
         <v>63443105</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>63443105</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>63443105</v>
       </c>
@@ -4686,12 +4691,12 @@
         <f>C29</f>
         <v>3372815</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>3372815.0000000005</v>
       </c>
@@ -4704,15 +4709,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4725,12 +4730,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4743,12 +4748,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>33889.333333333336</v>
       </c>
@@ -4757,16 +4762,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4885,17 +4890,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>70.8</v>
+        <v>74.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4905,40 +4910,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>542021.65427639999</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>568816.51006690005</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4946,11 +4951,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4961,22 +4966,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5005,7 +5010,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5016,7 +5021,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5030,11 +5035,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5043,7 +5048,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5054,7 +5059,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5065,10 +5070,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5080,10 +5085,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5105,14 +5110,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.73672180139004328</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5120,7 +5125,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.16976569605864555</v>
       </c>
@@ -5131,7 +5136,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
@@ -5143,14 +5148,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5159,30 +5164,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.366750307740915</v>
+        <v>22.443616237040231</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
@@ -5191,14 +5196,14 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>8.4396594173019507E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -5219,10 +5224,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5230,22 +5235,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>25.509238204160393</v>
+        <v>24.163066789421745</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.725261945334708</v>
+        <v>46.445778207602238</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.010868475482816</v>
-      </c>
-      <c r="G29" s="273">
+        <v>28.427137399319701</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.239358213334533</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>40.387633224001952</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,17 +5262,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5277,7 +5282,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5285,17 +5290,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5305,24 +5310,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5332,7 +5337,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5351,10 +5356,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6336,16 +6341,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6359,11 +6364,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6396,7 +6401,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6460,47 +6465,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>373709804</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>345708706</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>343360825</v>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6562,47 +6567,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>275320160</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>262321797</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>266450882</v>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6613,47 +6618,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>98389644</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>83386909</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>76909943</v>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6664,47 +6669,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>48856759</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>40739409</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>39388663</v>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6715,47 +6720,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>14586346</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>12667099</v>
       </c>
-      <c r="E11" s="200">
+      <c r="E11" s="199">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>12014891</v>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6766,47 +6771,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>345044</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>592597.33333333337</v>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6814,50 +6819,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>8.5723490573592909E-2</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>7.2558631773635404E-2</v>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6865,50 +6870,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>29635357</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>24913791.666666668</v>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6916,50 +6921,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.17807420597857701</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.18951612811511689</v>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6970,47 +6975,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7021,47 +7026,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3372815</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1902422</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1299556</v>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7072,47 +7077,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7123,47 +7128,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7174,47 +7179,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7225,47 +7230,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7276,47 +7281,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>27732935</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>23614235.666666668</v>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7327,47 +7332,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>6.0165396152910305E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>5.1580365203281416E-2</v>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7378,7 +7383,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>23654876</v>
       </c>
@@ -7426,50 +7431,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13726998843312713</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.17441594940746688</v>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7586,43 +7591,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7637,43 +7642,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7688,43 +7693,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7739,43 +7744,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7790,43 +7795,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7841,43 +7846,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7892,43 +7897,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7994,43 +7999,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8045,43 +8050,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8096,43 +8101,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8194,47 +8199,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8263,47 +8268,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.75879430412724402</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.77600839292018831</v>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8314,47 +8319,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.15448412803350112</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.1497071018512377</v>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8365,47 +8370,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8416,47 +8421,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.5029623697124943E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>3.7848115025935179E-3</v>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8467,47 +8472,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>9.9807726566191824E-4</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>1.7258734549386446E-3</v>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8518,47 +8523,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8569,47 +8574,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>8.0220528203880412E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>6.8773820271041897E-2</v>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8638,47 +8643,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8689,47 +8694,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8757,47 +8762,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8807,47 +8812,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8857,47 +8862,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10693825873363277</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>6.8597932386168292E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>5.5032736114953934E-2</v>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8907,47 +8912,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10245,8 +10250,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10295,7 +10300,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10392,7 +10397,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10439,7 +10444,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10467,7 +10472,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10495,7 +10500,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10523,7 +10528,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10536,7 +10541,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10551,7 +10556,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10578,7 +10583,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10600,7 +10605,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10622,7 +10627,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10643,7 +10648,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10668,7 +10673,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10695,7 +10700,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10716,7 +10721,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10881,7 +10886,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10910,7 +10915,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10936,7 +10941,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10963,7 +10968,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10990,7 +10995,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11006,7 +11011,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11020,7 +11025,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11047,7 +11052,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11073,7 +11078,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11100,7 +11105,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11127,7 +11132,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11148,7 +11153,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11169,7 +11174,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11190,7 +11195,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11211,7 +11216,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11357,7 +11362,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11466,11 +11471,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11481,11 +11486,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11497,11 +11502,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11597,8 +11602,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11678,8 +11683,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11715,19 +11720,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11737,18 +11742,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11759,17 +11764,17 @@
         <f>Data!C6</f>
         <v>373709804</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>373709804</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>373709804</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11780,23 +11785,23 @@
         <f>Data!C8</f>
         <v>275320160</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>275320160</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>275320160</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.73672180139004328</v>
       </c>
@@ -11806,21 +11811,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>98389644</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>98389644</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>98389644</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11831,23 +11836,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>63443105</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>63443105</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>63443105</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.16976569605864555</v>
       </c>
@@ -11861,54 +11866,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>9.3421818996931277E-2</v>
       </c>
@@ -11922,27 +11927,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11954,23 +11959,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>3372815</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
@@ -11984,23 +11989,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12010,27 +12015,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
@@ -12040,49 +12045,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>23654876</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
@@ -12092,69 +12097,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>4.4556099580317705E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>4.4556099580317705E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.680168886691731E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>4.4556099580317705E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -12164,21 +12169,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="210"/>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12200,22 +12205,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12225,9 +12230,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12235,15 +12240,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>60.362576011279508</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>57.177127128171719</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>60.362576011279508</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>57.177127128171719</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12251,23 +12256,26 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
@@ -12289,14 +12297,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12311,21 +12319,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>229753397.98520702</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>217628870.61471444</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.010868475482816</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>28.427137399319701</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.010868475482816</v>
+        <v>28.427137399319701</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>43.239358213334533</v>
+        <v>40.387633224001952</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12337,14 +12345,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12355,17 +12363,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12374,27 +12382,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>229753397.98520702</v>
+        <v>217628870.61471444</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>25.509238204160393</v>
+        <v>24.163066789421745</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>30.010868475482816</v>
+        <v>28.427137399319701</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.010868475482816</v>
+        <v>28.427137399319701</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.010868475482816</v>
+        <v>28.427137399319701</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.239358213334533</v>
+        <v>40.387633224001952</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12413,14 +12421,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12474,14 +12482,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12496,27 +12504,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>114876698.99260351</v>
+        <v>108814435.30735722</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.754619102080197</v>
+        <v>12.081533394710872</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.005434237741408</v>
+        <v>14.21356869965985</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.005434237741408</v>
+        <v>14.21356869965985</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.005434237741408</v>
+        <v>14.21356869965985</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.619679106667267</v>
+        <v>20.193816612000976</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD4DC33-2E4A-4ACE-9E1F-EF5E544CBADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DAE46-E55A-479A-A7CC-38AE66C7346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -958,6 +958,9 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -3573,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,7 +3630,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -4588,7 +4591,9 @@
       <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4900,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.3</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4941,7 +4946,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>568816.51006690005</v>
+        <v>567668.15910445002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4984,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4990,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5036,10 +5041,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5086,7 +5091,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5173,7 +5178,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.443616237040231</v>
+        <v>22.445723073930576</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,20 +5240,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.163066789421745</v>
+        <v>24.111539213259515</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>46.445778207602238</v>
+        <v>42.255170650287809</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.387633224001952</v>
+        <v>36.743626652424183</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12120,17 +12125,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4556099580317705E-2</v>
+        <v>4.4551917383380837E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4556099580317705E-2</v>
+        <v>4.4551917383380837E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4556099580317705E-2</v>
+        <v>4.4551917383380837E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12230,7 +12235,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12241,14 +12246,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.177127128171719</v>
+        <v>57.0551972920913</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.177127128171719</v>
+        <v>57.0551972920913</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12262,7 +12267,7 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
@@ -12319,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>217628870.61471444</v>
+        <v>217164778.52311748</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.387633224001952</v>
+        <v>36.743626652424183</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12382,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>217628870.61471444</v>
+        <v>217164778.52311748</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.163066789421745</v>
+        <v>24.111539213259515</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.427137399319701</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>40.387633224001952</v>
+        <v>36.743626652424183</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12504,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>108814435.30735722</v>
+        <v>108582389.26155874</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.081533394710872</v>
+        <v>12.055769606629758</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.21356869965985</v>
+        <v>14.183258360740892</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.21356869965985</v>
+        <v>14.183258360740892</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.21356869965985</v>
+        <v>14.183258360740892</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.193816612000976</v>
+        <v>18.371813326212092</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DAE46-E55A-479A-A7CC-38AE66C7346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A6D57C-96DC-4627-8927-C00C1BAA2C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.150000000000006</v>
+        <v>73.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>567668.15910445002</v>
+        <v>559246.91871315008</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4995,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.445723073930576</v>
+        <v>22.082844326622734</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,20 +5240,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.111539213259515</v>
+        <v>24.228916635176386</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>42.255170650287809</v>
+        <v>42.460873112902092</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>36.743626652424183</v>
+        <v>36.922498359045299</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12125,17 +12125,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4551917383380837E-2</v>
+        <v>4.52840216237188E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4551917383380837E-2</v>
+        <v>4.52840216237188E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4551917383380837E-2</v>
+        <v>4.52840216237188E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12246,14 +12246,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.0551972920913</v>
+        <v>57.332947787647441</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.0551972920913</v>
+        <v>57.332947787647441</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>217164778.52311748</v>
+        <v>218221958.72255385</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.743626652424183</v>
+        <v>36.922498359045299</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12387,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>217164778.52311748</v>
+        <v>218221958.72255385</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.111539213259515</v>
+        <v>24.228916635176386</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.366516721481783</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.743626652424183</v>
+        <v>36.922498359045299</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>108582389.26155874</v>
+        <v>109110979.36127692</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.055769606629758</v>
+        <v>12.114458317588193</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.183258360740892</v>
+        <v>14.252303903044933</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.183258360740892</v>
+        <v>14.252303903044933</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.183258360740892</v>
+        <v>14.252303903044933</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.371813326212092</v>
+        <v>18.46124917952265</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A6D57C-96DC-4627-8927-C00C1BAA2C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F0B4CB-1629-4DA1-8E7C-10B49CB4CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -944,23 +944,31 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0300.HK</t>
   </si>
   <si>
     <t>美的集團</t>
   </si>
   <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -3576,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>257</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4288,7 +4296,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4400,7 +4408,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4905,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.05</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4946,7 +4954,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>559246.91871315008</v>
+        <v>578768.88507479988</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4995,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5041,10 +5049,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5091,7 +5099,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5178,7 +5186,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.082844326622734</v>
+        <v>22.842872269165959</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.228916635176386</v>
+        <v>28.640773174862147</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>42.460873112902092</v>
+        <v>52.921116503913474</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>36.922498359045299</v>
+        <v>46.018362177316071</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12125,17 +12133,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.52840216237188E-2</v>
+        <v>4.3777331861625475E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.52840216237188E-2</v>
+        <v>4.3777331861625475E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.52840216237188E-2</v>
+        <v>4.3777331861625475E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12235,7 +12243,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12246,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.332947787647441</v>
+        <v>67.772735271548427</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>57.332947787647441</v>
+        <v>67.772735271548427</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12324,21 +12332,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>218221958.72255385</v>
+        <v>257958113.26011834</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.922498359045299</v>
+        <v>46.018362177316071</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12387,27 +12395,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>218221958.72255385</v>
+        <v>257958113.26011834</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.228916635176386</v>
+        <v>28.640773174862147</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.504607806089865</v>
+        <v>33.695027264543704</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.922498359045299</v>
+        <v>46.018362177316071</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12509,27 +12517,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>109110979.36127692</v>
+        <v>128979056.63005917</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.114458317588193</v>
+        <v>14.320386587431074</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.252303903044933</v>
+        <v>16.847513632271852</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.252303903044933</v>
+        <v>16.847513632271852</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.252303903044933</v>
+        <v>16.847513632271852</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.46124917952265</v>
+        <v>23.009181088658035</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F0B4CB-1629-4DA1-8E7C-10B49CB4CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50FF299-D8C9-42FF-9A23-9CE7A9EA7CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -952,6 +952,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4913,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.599999999999994</v>
+        <v>77.349999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4954,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>578768.88507479988</v>
+        <v>592166.31297004991</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5003,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5024,7 +5028,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5035,7 +5039,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5062,7 +5066,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5186,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.842872269165959</v>
+        <v>23.389111832096372</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5248,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.640773174862147</v>
+        <v>28.479490158551307</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.921116503913474</v>
+        <v>52.623105090458331</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>46.018362177316071</v>
+        <v>45.759221817789857</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5296,8 +5300,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6323,12 +6327,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8754,118 +8758,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="e">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8873,107 +8878,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10693825873363277</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.8597932386168292E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>5.5032736114953934E-2</v>
-      </c>
-      <c r="F55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10693825873363277</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.8597932386168292E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.5032736114953934E-2</v>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9541,7 +9593,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10224,6 +10278,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12133,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3777331861625475E-2</v>
+        <v>4.2754936877411547E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3777331861625475E-2</v>
+        <v>4.2754936877411547E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3777331861625475E-2</v>
+        <v>4.2754936877411547E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12254,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.772735271548427</v>
+        <v>67.391090854985492</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.772735271548427</v>
+        <v>67.391090854985492</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12332,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>257958113.26011834</v>
+        <v>256505489.67574665</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>46.018362177316071</v>
+        <v>45.759221817789857</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>257958113.26011834</v>
+        <v>256505489.67574665</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.640773174862147</v>
+        <v>28.479490158551307</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>33.695027264543704</v>
+        <v>33.505282539472127</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>46.018362177316071</v>
+        <v>45.759221817789857</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12517,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>128979056.63005917</v>
+        <v>128252744.83787332</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.320386587431074</v>
+        <v>14.239745079275654</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>16.847513632271852</v>
+        <v>16.752641269736063</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>16.847513632271852</v>
+        <v>16.752641269736063</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.847513632271852</v>
+        <v>16.752641269736063</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>23.009181088658035</v>
+        <v>22.879610908894929</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50FF299-D8C9-42FF-9A23-9CE7A9EA7CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4463C7-7547-4159-BB0E-BDDB2BEC70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.349999999999994</v>
+        <v>77</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>592166.31297004991</v>
+        <v>589486.827391</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.389111832096372</v>
+        <v>23.291983229219326</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.479490158551307</v>
+        <v>28.493193351495687</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.623105090458331</v>
+        <v>52.648425226400811</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.505282539472127</v>
+        <v>33.521403942936104</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.759221817789857</v>
+        <v>45.781239327305059</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10318,8 +10318,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2754936877411547E-2</v>
+        <v>4.2933226860026243E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2754936877411547E-2</v>
+        <v>4.2933226860026243E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2754936877411547E-2</v>
+        <v>4.2933226860026243E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.391090854985492</v>
+        <v>67.423516755715355</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.391090854985492</v>
+        <v>67.423516755715355</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256505489.67574665</v>
+        <v>256628909.87030599</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>33.505282539472127</v>
+        <v>33.521403942936104</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>33.505282539472127</v>
+        <v>33.521403942936104</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>45.759221817789857</v>
+        <v>45.781239327305059</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,7 +12410,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12449,28 +12449,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>256505489.67574665</v>
+        <f>C97+C98+$C$99</f>
+        <v>256628909.87030599</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.479490158551307</v>
+        <v>28.493193351495687</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>33.505282539472127</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>33.521403942936104</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>33.505282539472127</v>
+        <v>33.521403942936104</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>33.505282539472127</v>
+        <v>33.521403942936104</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>45.759221817789857</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>45.781239327305059</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>128252744.83787332</v>
+        <v>128314454.93515299</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.239745079275654</v>
+        <v>14.246596675747844</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>16.752641269736063</v>
+        <v>16.760701971468052</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>16.752641269736063</v>
+        <v>16.760701971468052</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.752641269736063</v>
+        <v>16.760701971468052</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>22.879610908894929</v>
+        <v>22.890619663652529</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4463C7-7547-4159-BB0E-BDDB2BEC70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AACDA5FA-C6A8-4B70-80CD-21DD300382C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77</v>
+        <v>74.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>589486.827391</v>
+        <v>571878.77930009994</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.291983229219326</v>
+        <v>22.588829838234137</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.493193351495687</v>
+        <v>28.685639452844573</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.648425226400811</v>
+        <v>53.004018369366214</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.781239327305059</v>
+        <v>46.090450755970622</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2933226860026243E-2</v>
+        <v>4.4269668113015193E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2933226860026243E-2</v>
+        <v>4.4269668113015193E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2933226860026243E-2</v>
+        <v>4.4269668113015193E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.423516755715355</v>
+        <v>67.878902460602916</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.423516755715355</v>
+        <v>67.878902460602916</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256628909.87030599</v>
+        <v>258362209.2091589</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>45.781239327305059</v>
+        <v>46.090450755970622</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>256628909.87030599</v>
+        <v>258362209.2091589</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.493193351495687</v>
+        <v>28.685639452844573</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>33.521403942936104</v>
+        <v>33.747811120993617</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.781239327305059</v>
+        <v>46.090450755970622</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>128314454.93515299</v>
+        <v>129181104.60457945</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.246596675747844</v>
+        <v>14.342819726422286</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>16.760701971468052</v>
+        <v>16.873905560496809</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>16.760701971468052</v>
+        <v>16.873905560496809</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.760701971468052</v>
+        <v>16.873905560496809</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>22.890619663652529</v>
+        <v>23.045225377985311</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AACDA5FA-C6A8-4B70-80CD-21DD300382C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC3C8F3-23B8-42C8-9F03-76F9B4C60206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5053,10 +5053,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5103,7 +5103,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.588829838234137</v>
+        <v>22.590940138311009</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.685639452844573</v>
+        <v>26.192976750519612</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>53.004018369366214</v>
+        <v>47.130714812003511</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.747811120993617</v>
+        <v>30.81526676531719</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>46.090450755970622</v>
+        <v>40.983230271307406</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4269668113015193E-2</v>
+        <v>4.4265532725844492E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4269668113015193E-2</v>
+        <v>4.4265532725844492E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4269668113015193E-2</v>
+        <v>4.4265532725844492E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.878902460602916</v>
+        <v>61.980508293150585</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.878902460602916</v>
+        <v>61.980508293150585</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>258362209.2091589</v>
+        <v>235911608.32070327</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>33.747811120993617</v>
+        <v>30.81526676531719</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>33.747811120993617</v>
+        <v>30.81526676531719</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>46.090450755970622</v>
+        <v>40.983230271307406</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>258362209.2091589</v>
+        <v>235911608.32070327</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.685639452844573</v>
+        <v>26.192976750519612</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>33.747811120993617</v>
+        <v>30.81526676531719</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>33.747811120993617</v>
+        <v>30.81526676531719</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>33.747811120993617</v>
+        <v>30.815266765317187</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>46.090450755970622</v>
+        <v>40.983230271307406</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>129181104.60457945</v>
+        <v>117955804.16035163</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.342819726422286</v>
+        <v>13.096488375259806</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>16.873905560496809</v>
+        <v>15.407633382658595</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>16.873905560496809</v>
+        <v>15.407633382658595</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.873905560496809</v>
+        <v>15.407633382658593</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>23.045225377985311</v>
+        <v>20.491615135653703</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC3C8F3-23B8-42C8-9F03-76F9B4C60206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13C3D22-E464-419D-95AD-830655A338CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4917,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.7</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4958,7 +4969,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>571878.77930009994</v>
+        <v>559629.70236729993</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5201,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.590940138311009</v>
+        <v>22.127073160558425</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,20 +5263,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.192976750519612</v>
+        <v>26.285773342381145</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.130714812003511</v>
+        <v>47.297689713260773</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.81526676531719</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.983230271307406</v>
+        <v>41.128425837618067</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12199,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4265532725844492E-2</v>
+        <v>4.5193505383373661E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4265532725844492E-2</v>
+        <v>4.5193505383373661E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4265532725844492E-2</v>
+        <v>4.5193505383373661E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12309,14 +12320,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.980508293150585</v>
+        <v>62.200093107287287</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.980508293150585</v>
+        <v>62.200093107287287</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12387,21 +12398,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>235911608.32070327</v>
+        <v>236747396.99188974</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.81526676531719</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.81526676531719</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.983230271307406</v>
+        <v>41.128425837618067</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12461,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>235911608.32070327</v>
+        <v>236747396.99188974</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.192976750519612</v>
+        <v>26.285773342381145</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.81526676531719</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.81526676531719</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.815266765317187</v>
+        <v>30.924439226330758</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.983230271307406</v>
+        <v>41.128425837618067</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12572,27 +12583,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>117955804.16035163</v>
+        <v>118373698.49594487</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.096488375259806</v>
+        <v>13.142886671190572</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.407633382658595</v>
+        <v>15.462219613165379</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.407633382658595</v>
+        <v>15.462219613165379</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.407633382658593</v>
+        <v>15.462219613165379</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.491615135653703</v>
+        <v>20.564212918809034</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13C3D22-E464-419D-95AD-830655A338CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC2F186-381A-44C4-B67E-1155C931891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,6 +946,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>7655673083</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3849,7 +3874,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>275320160</v>
@@ -3871,7 +3896,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>34880794+13975965</f>
@@ -3896,7 +3921,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>14586346</v>
@@ -3918,7 +3943,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>3372815</v>
@@ -3940,7 +3965,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>25417</v>
@@ -3962,7 +3987,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3994,7 +4019,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4026,7 +4051,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4042,7 +4067,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4122,7 +4147,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4138,7 +4163,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4154,7 +4179,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4170,7 +4195,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -4186,7 +4211,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,21 +4260,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4259,7 +4284,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4269,7 +4294,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4280,7 +4305,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4290,7 +4315,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4300,7 +4325,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4311,7 +4336,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4321,7 +4346,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4332,7 +4357,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4340,24 +4365,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4368,7 +4393,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4379,7 +4404,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4390,7 +4415,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4401,7 +4426,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4412,7 +4437,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4423,7 +4448,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4433,31 +4458,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4465,12 +4490,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4481,7 +4506,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4492,7 +4517,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4502,7 +4527,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4513,7 +4538,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4523,25 +4548,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4553,55 +4578,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4609,10 +4634,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4620,18 +4645,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4640,20 +4665,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4671,7 +4696,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4692,7 +4717,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4713,7 +4738,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4731,7 +4756,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4752,7 +4777,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4770,7 +4795,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4788,7 +4813,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4916,62 +4941,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.099999999999994</v>
+        <v>73.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>559629.70236729993</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>560778.05332974996</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4994,16 +5019,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5018,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,40 +5053,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5074,29 +5099,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5106,12 +5131,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5121,29 +5146,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.73672180139004328</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5151,7 +5176,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5162,26 +5187,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5190,30 +5215,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.127073160558425</v>
+        <v>22.171094902800416</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5222,14 +5247,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>8.4396594173019507E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5243,62 +5268,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.285773342381145</v>
+        <v>26.27613016237051</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.297689713260773</v>
+        <v>47.280338116636578</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.924439226330758</v>
-      </c>
-      <c r="G29" s="274">
+        <v>30.913094308671187</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.128425837618067</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>41.11333749272746</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5308,25 +5333,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5336,7 +5361,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5346,14 +5371,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5363,7 +5388,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5378,14 +5403,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6338,12 +6363,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6370,16 +6395,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6397,7 +6422,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6430,7 +6455,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6441,7 +6466,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6593,7 +6618,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6644,7 +6669,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6695,7 +6720,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6746,7 +6771,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6797,7 +6822,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6848,7 +6873,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6899,7 +6924,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6950,7 +6975,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7001,7 +7026,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7052,7 +7077,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7103,7 +7128,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7154,7 +7179,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7205,7 +7230,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7256,7 +7281,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7307,7 +7332,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7358,7 +7383,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7409,7 +7434,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7460,7 +7485,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7511,7 +7536,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7664,7 +7689,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7715,7 +7740,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7817,7 +7842,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8021,7 +8046,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8072,7 +8097,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8123,7 +8148,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8174,7 +8199,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8225,7 +8250,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8276,7 +8301,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8294,7 +8319,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8345,7 +8370,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8396,7 +8421,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8447,7 +8472,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8498,7 +8523,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8549,7 +8574,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8600,7 +8625,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8651,7 +8676,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8668,50 +8693,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8720,10 +8745,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8771,167 +8796,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8939,112 +8965,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10693825873363277</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>6.8597932386168292E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>5.5032736114953934E-2</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10693825873363277</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.8597932386168292E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5032736114953934E-2</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9607,7 +9823,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10290,6 +10508,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10329,8 +10548,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10348,7 +10567,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10363,7 +10582,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10377,7 +10596,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10387,7 +10606,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10405,10 +10624,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10417,12 +10636,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10432,7 +10652,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10442,8 +10662,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10455,7 +10676,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10473,7 +10694,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10492,32 +10713,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10534,7 +10755,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10545,7 +10766,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10562,7 +10783,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10573,7 +10794,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10590,7 +10811,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10601,7 +10822,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10618,7 +10839,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10629,7 +10850,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10646,7 +10867,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10656,7 +10877,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10678,7 +10899,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10700,7 +10921,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10721,7 +10942,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10746,7 +10967,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10773,7 +10994,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10794,7 +11015,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10811,7 +11032,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10823,13 +11044,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10851,7 +11072,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10871,7 +11092,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10880,7 +11101,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10900,7 +11121,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10913,7 +11134,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10933,7 +11154,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10979,7 +11200,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10988,7 +11209,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11004,7 +11225,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11014,7 +11235,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11031,7 +11252,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11041,7 +11262,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11058,7 +11279,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11068,7 +11289,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11088,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11098,7 +11319,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11115,7 +11336,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11125,7 +11346,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11151,7 +11372,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11178,7 +11399,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11205,7 +11426,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11226,7 +11447,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11247,7 +11468,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11268,7 +11489,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11289,7 +11510,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11306,7 +11527,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11324,7 +11545,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11343,7 +11564,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11362,7 +11583,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11379,7 +11600,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11392,7 +11613,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11409,7 +11630,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11439,7 +11660,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11466,7 +11687,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11482,14 +11703,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11506,7 +11727,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11536,7 +11757,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11547,14 +11768,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11562,30 +11783,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11602,11 +11823,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11616,7 +11837,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11637,7 +11858,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11658,7 +11879,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11679,7 +11900,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11694,7 +11915,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11725,11 +11946,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11739,7 +11960,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11760,7 +11981,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11775,7 +11996,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11797,21 +12018,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11821,23 +12042,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11858,7 +12079,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11888,7 +12109,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11909,7 +12130,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11939,7 +12160,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11969,7 +12190,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12000,7 +12221,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12027,12 +12248,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12062,7 +12283,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12092,7 +12313,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12122,7 +12343,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12143,7 +12364,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12174,7 +12395,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12195,28 +12416,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5193505383373661E-2</v>
+        <v>4.5103771572133348E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5193505383373661E-2</v>
+        <v>4.5103771572133348E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5193505383373661E-2</v>
+        <v>4.5103771572133348E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12246,7 +12467,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12277,29 +12498,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12316,24 +12537,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.200093107287287</v>
+        <v>62.177274425611117</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.200093107287287</v>
+        <v>62.177274425611117</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12344,14 +12565,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12374,51 +12595,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>236747396.99188974</v>
+        <v>236660544.01113451</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.924439226330758</v>
+        <v>30.913094308671187</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.924439226330758</v>
+        <v>30.913094308671187</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.128425837618067</v>
+        <v>41.11333749272746</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12436,7 +12657,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12457,31 +12678,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>236747396.99188974</v>
+        <v>236660544.01113451</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.285773342381145</v>
+        <v>26.27613016237051</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.924439226330758</v>
+        <v>30.913094308671187</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.924439226330758</v>
+        <v>30.913094308671187</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.924439226330758</v>
+        <v>30.913094308671187</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.128425837618067</v>
+        <v>41.11333749272746</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12491,34 +12712,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12552,58 +12773,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>118373698.49594487</v>
+        <v>118330272.00556725</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.142886671190572</v>
+        <v>13.138065081185255</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.462219613165379</v>
+        <v>15.456547154335594</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.462219613165379</v>
+        <v>15.456547154335594</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.462219613165379</v>
+        <v>15.456547154335594</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.564212918809034</v>
+        <v>20.55666874636373</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12612,7 +12833,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12621,6 +12842,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC2F186-381A-44C4-B67E-1155C931891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3FC9E8-5D2A-4A8D-BECD-C088314948BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <t>C0003</t>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -965,10 +931,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -982,6 +944,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.73672180139004328</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16976569605864555</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0683554379893485E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0252248239117653E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4396594173019507E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>7655673083</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3943,7 +3106,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>3372815</v>
@@ -4067,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4163,7 +3326,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4195,7 +3358,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -4211,7 +3374,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4260,13 +3423,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4325,7 +3488,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4336,7 +3499,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4437,7 +3600,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4448,7 +3611,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4608,7 +3771,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4626,7 +3789,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4634,10 +3797,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4647,16 +3810,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4665,10 +3828,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4717,7 +3880,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4738,7 +3901,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4756,7 +3919,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4795,7 +3958,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4813,7 +3976,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4899,8 +4062,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4941,62 +4104,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.25</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>560778.05332974996</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>560012.48602145002</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5019,16 +4182,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5043,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5053,40 +4216,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5099,29 +4262,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5131,12 +4294,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5144,9 +4307,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5154,59 +4317,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.73672180139004328</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.16976569605864555</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.0683554379893485E-5</v>
+      <c r="B22" s="279" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>9.3421818996931277E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5215,30 +4378,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.171094902800416</v>
+        <v>22.142898402641546</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5247,14 +4410,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>8.4396594173019507E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5268,62 +4431,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.27613016237051</v>
+        <v>26.280892598973246</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.280338116636578</v>
+        <v>47.288907476410834</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.913094308671187</v>
-      </c>
-      <c r="G29" s="278">
+        <v>30.918697175262643</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.11333749272746</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>41.12078910992247</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5333,7 +4496,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5344,14 +4507,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5361,7 +4524,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5371,14 +4534,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5388,7 +4551,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5403,14 +4566,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6354,7 +5517,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6368,7 +5530,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6395,16 +5557,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6422,7 +5584,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6455,7 +5617,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6822,7 +5984,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6873,7 +6035,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6924,7 +6086,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6975,7 +6137,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7077,7 +6239,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7230,7 +6392,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7740,7 +6902,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8250,7 +7412,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8301,7 +7463,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8370,7 +7532,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8574,7 +7736,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8676,7 +7838,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8694,14 +7856,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8745,7 +7907,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8796,7 +7958,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8847,7 +8009,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8898,7 +8060,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8915,7 +8077,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9115,7 +8277,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9165,7 +8327,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9215,7 +8377,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10719,7 +9881,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10877,7 +10039,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11289,7 +10451,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11757,7 +10919,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11771,11 +10933,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11786,11 +10948,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11802,11 +10964,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11823,7 +10985,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11900,7 +11062,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11946,7 +11108,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11981,7 +11143,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12020,19 +11182,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12042,18 +11204,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12130,7 +11292,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12160,7 +11322,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12190,7 +11352,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12253,7 +11415,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12283,7 +11445,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12364,7 +11526,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12395,7 +11557,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12416,28 +11578,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5103771572133348E-2</v>
+        <v>4.5161206171668321E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5103771572133348E-2</v>
+        <v>4.5161206171668321E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5103771572133348E-2</v>
+        <v>4.5161206171668321E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12467,7 +11629,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12503,24 +11665,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12537,24 +11699,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.177274425611117</v>
+        <v>62.188543791600452</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.177274425611117</v>
+        <v>62.188543791600452</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12565,14 +11727,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12595,14 +11757,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12619,21 +11781,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>236660544.01113451</v>
+        <v>236703437.72608638</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.913094308671187</v>
+        <v>30.918697175262647</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.913094308671187</v>
+        <v>30.918697175262647</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.11333749272746</v>
+        <v>41.12078910992247</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12682,27 +11844,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>236660544.01113451</v>
+        <v>236703437.72608638</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.27613016237051</v>
+        <v>26.280892598973246</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.913094308671187</v>
+        <v>30.918697175262647</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.913094308671187</v>
+        <v>30.918697175262643</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.913094308671187</v>
+        <v>30.918697175262643</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.11333749272746</v>
+        <v>41.12078910992247</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12712,21 +11874,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12739,7 +11901,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12773,21 +11935,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12800,31 +11962,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>118330272.00556725</v>
+        <v>118351718.86304319</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.138065081185255</v>
+        <v>13.140446299486623</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.456547154335594</v>
+        <v>15.459348587631323</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.456547154335594</v>
+        <v>15.459348587631322</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.456547154335594</v>
+        <v>15.459348587631322</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.55666874636373</v>
+        <v>20.560394554961235</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12833,7 +11995,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3FC9E8-5D2A-4A8D-BECD-C088314948BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F89445-18DA-4FD5-8361-20FC25EA5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -915,10 +911,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +972,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>7655673083</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3106,7 +3126,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>3372815</v>
@@ -3196,9 +3216,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>267</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3214,7 +3234,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3230,7 +3250,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3245,10 +3265,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3260,9 +3281,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3309,10 +3330,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3326,9 +3348,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3342,7 +3364,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3358,7 +3380,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -3374,7 +3396,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3423,13 +3445,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3447,7 +3469,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3457,7 +3479,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3488,7 +3510,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3499,7 +3521,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3533,7 +3555,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3600,7 +3622,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3611,7 +3633,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3658,7 +3680,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3771,7 +3793,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3789,7 +3811,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3797,10 +3819,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3808,7 +3830,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3816,10 +3838,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3841,7 +3863,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3901,7 +3923,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3958,7 +3980,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3976,7 +3998,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3999,28 +4021,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4062,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4104,7 +4131,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4116,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.150000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4144,7 +4171,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4157,7 +4184,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>560012.48602145002</v>
+        <v>559629.70236729993</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4191,7 +4218,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4206,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4216,40 +4243,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4262,29 +4289,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4294,12 +4321,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4309,7 +4336,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4317,21 +4344,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4339,10 +4366,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4350,58 +4377,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>9.3421818996931277E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.142898402641546</v>
+        <v>22.129143209201587</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4410,14 +4437,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4431,40 +4458,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.280892598973246</v>
+        <v>26.282782918636254</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.288907476410834</v>
+        <v>47.29230885067193</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.918697175262643</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.12078910992247</v>
+        <v>41.123746826671244</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4472,21 +4499,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4496,25 +4523,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4524,7 +4551,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4534,14 +4561,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4551,7 +4578,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4566,14 +4593,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5473,27 +5500,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5525,12 +5552,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5557,16 +5584,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5584,7 +5611,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5617,7 +5644,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5628,7 +5655,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5984,7 +6011,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6035,7 +6062,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6086,7 +6113,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6137,7 +6164,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6239,7 +6266,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6392,7 +6419,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6647,7 +6674,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6698,7 +6725,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6752,15 +6779,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6800,50 +6827,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6851,50 +6878,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6902,101 +6929,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7004,101 +7031,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7106,50 +7133,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7157,50 +7184,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7208,50 +7235,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7259,272 +7286,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.73672180139004328</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.75879430412724402</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.77600839292018831</v>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.16976569605864555</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15448412803350112</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.1497071018512377</v>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.73672180139004328</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.75879430412724402</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.77600839292018831</v>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7532,50 +7559,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.16976569605864555</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>9.0252248239117653E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15448412803350112</v>
+        <f t="shared" si="37"/>
+        <v>5.5029623697124943E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.1497071018512377</v>
+        <f t="shared" si="37"/>
+        <v>3.7848115025935179E-3</v>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7583,50 +7610,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.0683554379893485E-5</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.9807726566191824E-4</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.7258734549386446E-3</v>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7634,50 +7661,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>9.0252248239117653E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.5029623697124943E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.7848115025935179E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7685,221 +7712,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.0683554379893485E-5</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>8.4396594173019507E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>9.9807726566191824E-4</v>
+        <f t="shared" si="40"/>
+        <v>8.0220528203880412E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.7258734549386446E-3</v>
+        <f t="shared" si="40"/>
+        <v>6.8773820271041897E-2</v>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>8.4396594173019507E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.0220528203880412E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.8773820271041897E-2</v>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7907,522 +7934,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>248</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10693825873363277</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.8597932386168292E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5032736114953934E-2</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10693825873363277</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.8597932386168292E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.5032736114953934E-2</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8982,12 +8913,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9669,27 +9596,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9881,7 +9811,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9928,7 +9858,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9956,7 +9886,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10039,7 +9969,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10061,7 +9991,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10129,7 +10059,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10451,7 +10381,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10588,7 +10518,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10919,7 +10849,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10985,7 +10915,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11020,7 +10950,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11041,7 +10971,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11062,7 +10992,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11077,7 +11007,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11108,7 +11038,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11122,7 +11052,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11143,7 +11073,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11158,7 +11088,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11180,7 +11110,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11188,11 +11118,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11220,7 +11150,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11292,7 +11222,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11322,7 +11252,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11352,7 +11282,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11410,12 +11340,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11445,7 +11375,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11475,7 +11405,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11526,7 +11456,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11557,7 +11487,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11578,28 +11508,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5161206171668321E-2</v>
+        <v>4.5189277801961483E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5161206171668321E-2</v>
+        <v>4.5189277801961483E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5161206171668321E-2</v>
+        <v>4.5189277801961483E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11629,7 +11559,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11660,27 +11590,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11699,24 +11629,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.188543791600452</v>
+        <v>62.193016859883812</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.188543791600452</v>
+        <v>62.193016859883812</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11727,14 +11657,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11757,14 +11687,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11777,31 +11707,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>236703437.72608638</v>
+        <v>236720463.21945384</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.918697175262647</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.918697175262647</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.12078910992247</v>
+        <v>41.123746826671244</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11819,7 +11749,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11844,27 +11774,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>236703437.72608638</v>
+        <v>236720463.21945384</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.280892598973246</v>
+        <v>26.282782918636254</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.918697175262647</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.918697175262643</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.918697175262643</v>
+        <v>30.920921080748535</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.12078910992247</v>
+        <v>41.123746826671244</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11874,21 +11804,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11901,7 +11831,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -11935,21 +11865,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11962,31 +11892,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>118351718.86304319</v>
+        <v>118360231.60972692</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.140446299486623</v>
+        <v>13.141391459318127</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.459348587631323</v>
+        <v>15.460460540374267</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.459348587631322</v>
+        <v>15.460460540374267</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.459348587631322</v>
+        <v>15.460460540374267</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.560394554961235</v>
+        <v>20.561873413335622</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11995,7 +11925,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F89445-18DA-4FD5-8361-20FC25EA5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F999640-9C11-4709-B122-9D92519655E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -951,10 +947,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -984,6 +976,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>268</v>
+      <c r="C4" s="187" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>269</v>
+      <c r="C5" s="190" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="139" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="192">
+        <v>7655673083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="216">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="217">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="215" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="216">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="220">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="193">
-        <v>7655673083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="219">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="220">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="219">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="223">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>230</v>
-      </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>230</v>
+      <c r="C19" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>230</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>243</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,420 +3045,424 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>373709804</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>345708706</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>343360825</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>275320160</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>262321797</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>266450882</v>
       </c>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>34880794+13975965</f>
         <v>48856759</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>28715439+12023970</f>
         <v>40739409</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <f>28646188+10742475</f>
         <v>39388663</v>
       </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>14586346</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>12667099</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="149">
         <v>12014891</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>3372815</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>1902422</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>1299556</v>
       </c>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>25417</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>258783</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>444448</v>
       </c>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>265</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="C44" s="247"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152" t="str">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="152" t="str">
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3521,7 +3533,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3549,7 +3561,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3561,7 +3573,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3580,8 +3592,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3633,7 +3645,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3649,7 +3661,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3661,7 +3673,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3674,7 +3686,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3722,14 +3734,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3753,7 +3765,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3783,19 +3795,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>269</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3811,20 +3823,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3854,10 +3866,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3869,12 +3881,12 @@
         <f>C25</f>
         <v>373709804</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>373709804</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>373709804</v>
       </c>
@@ -3887,75 +3899,75 @@
         <f>C26</f>
         <v>275320160</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>275320160</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>275320160</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>63443105</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>63443105</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>63443105</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3372815</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>3372815.0000000005</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3968,12 +3980,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3986,12 +3998,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>33889.333333333336</v>
       </c>
@@ -4000,16 +4012,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4090,7 +4102,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4142,11 +4154,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4184,7 +4196,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>559629.70236729993</v>
+        <v>565371.45717954997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4194,11 +4206,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4220,11 +4232,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4232,8 +4244,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4242,10 +4254,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4253,7 +4265,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4261,13 +4273,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4276,12 +4288,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4291,7 +4303,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4302,7 +4314,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4310,13 +4322,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4326,49 +4338,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4376,77 +4388,77 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.129143209201587</v>
+        <v>22.374177483548934</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4465,10 +4477,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4476,22 +4488,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.282782918636254</v>
-      </c>
-      <c r="D29" s="129">
+        <v>26.199533291563441</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>47.29230885067193</v>
+        <v>47.142512419775748</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.920921080748535</v>
+        <v>30.822980343015814</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.123746826671244</v>
+        <v>40.99348906067457</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4499,23 +4511,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4523,9 +4535,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4533,17 +4545,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4551,26 +4563,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4578,9 +4590,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4593,16 +4605,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5554,10 +5566,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5583,16 +5595,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5606,11 +5618,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5635,7 +5647,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5643,7 +5655,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5707,47 +5719,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>373709804</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>345708706</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>343360825</v>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5809,47 +5821,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>275320160</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>262321797</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>266450882</v>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5860,47 +5872,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>98389644</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>83386909</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>76909943</v>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5911,47 +5923,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>48856759</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>40739409</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>39388663</v>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5962,47 +5974,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>14586346</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>12667099</v>
       </c>
-      <c r="E11" s="199">
+      <c r="E11" s="198">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>12014891</v>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6011,49 +6023,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>345044</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>592597.33333333337</v>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6061,50 +6073,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>8.5723490573592909E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>7.2558631773635404E-2</v>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6112,50 +6124,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>29635357</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>24913791.666666668</v>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6163,50 +6175,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.17807420597857701</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.18951612811511689</v>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6217,47 +6229,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6266,49 +6278,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3372815</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1902422</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1299556</v>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6319,47 +6331,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6370,47 +6382,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6419,49 +6431,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6472,47 +6484,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6523,47 +6535,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>27732935</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>23614235.666666668</v>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6574,47 +6586,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>6.0165396152910305E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>5.1580365203281416E-2</v>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6625,7 +6637,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>23654876</v>
       </c>
@@ -6673,50 +6685,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13726998843312713</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.17441594940746688</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6833,43 +6845,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6884,43 +6896,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6929,49 +6941,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6986,43 +6998,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7037,43 +7049,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7139,43 +7151,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7190,43 +7202,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7241,43 +7253,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7339,47 +7351,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7388,7 +7400,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7408,47 +7420,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.75879430412724402</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.77600839292018831</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7457,49 +7469,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.15448412803350112</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.1497071018512377</v>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7510,47 +7522,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7561,47 +7573,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.5029623697124943E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>3.7848115025935179E-3</v>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7612,47 +7624,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>9.9807726566191824E-4</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>1.7258734549386446E-3</v>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7661,49 +7673,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7714,47 +7726,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>8.0220528203880412E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>6.8773820271041897E-2</v>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7763,9 +7775,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>249</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>267</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7780,50 +7794,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7832,49 +7846,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="153">
+        <v>256</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7883,49 +7897,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="153">
+        <v>257</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7934,49 +7948,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>247</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7985,7 +7999,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8002,49 +8016,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>251</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8054,47 +8068,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8104,47 +8118,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10693825873363277</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>6.8597932386168292E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>5.5032736114953934E-2</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8154,47 +8168,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8202,149 +8216,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>252</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9640,8 +9654,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9677,8 +9691,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9690,8 +9704,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9701,8 +9715,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9789,11 +9803,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9836,7 +9850,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9864,7 +9878,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9892,7 +9906,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9920,7 +9934,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9933,7 +9947,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9948,7 +9962,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9975,7 +9989,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9997,7 +10011,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10019,7 +10033,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10040,7 +10054,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10048,7 +10062,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10065,7 +10079,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10073,7 +10087,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10092,7 +10106,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10278,7 +10292,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10307,7 +10321,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10333,7 +10347,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10360,7 +10374,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10387,7 +10401,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10403,7 +10417,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10417,7 +10431,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10444,7 +10458,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10452,7 +10466,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10470,7 +10484,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10478,7 +10492,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10497,7 +10511,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10505,7 +10519,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10545,7 +10559,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10566,7 +10580,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10587,7 +10601,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10608,7 +10622,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10754,8 +10768,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10781,8 +10795,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10852,7 +10866,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10952,7 +10966,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10960,7 +10974,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10991,11 +11005,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11072,12 +11086,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11156,17 +11170,17 @@
         <f>Data!C6</f>
         <v>373709804</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>373709804</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>373709804</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11177,23 +11191,23 @@
         <f>Data!C8</f>
         <v>275320160</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>275320160</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>275320160</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.73672180139004328</v>
       </c>
@@ -11203,48 +11217,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>98389644</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>98389644</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>98389644</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>63443105</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>63443105</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>63443105</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.16976569605864555</v>
       </c>
@@ -11258,54 +11272,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>9.3421818996931277E-2</v>
       </c>
@@ -11319,55 +11333,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3372815</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
@@ -11375,29 +11389,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11407,27 +11421,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
@@ -11437,49 +11451,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>23654876</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
@@ -11489,69 +11503,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5189277801961483E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>4.4694380418465442E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5189277801961483E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.4694380418465442E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5189277801961483E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>4.4694380418465442E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -11559,23 +11573,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="209"/>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11597,7 +11611,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11620,27 +11634,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.193016859883812</v>
+        <v>61.99602305309606</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.193016859883812</v>
+        <v>61.99602305309606</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11648,25 +11662,25 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11682,25 +11696,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11711,21 +11725,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>236720463.21945384</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>235970660.9498643</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.920921080748535</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>30.822980343015818</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.920921080748535</v>
-      </c>
-      <c r="I97" s="123">
+        <v>30.822980343015818</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.123746826671244</v>
+        <v>40.99348906067457</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11737,14 +11751,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11755,17 +11769,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11774,27 +11788,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>236720463.21945384</v>
+        <v>235970660.9498643</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.282782918636254</v>
+        <v>26.199533291563441</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.920921080748535</v>
+        <v>30.822980343015818</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.920921080748535</v>
+        <v>30.822980343015814</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.920921080748535</v>
+        <v>30.822980343015814</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.123746826671244</v>
+        <v>40.99348906067457</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11806,25 +11820,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11841,7 +11855,7 @@
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
@@ -11849,7 +11863,7 @@
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="123">
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11867,25 +11881,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11896,27 +11910,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>118360231.60972692</v>
+        <v>117985330.47493215</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.141391459318127</v>
-      </c>
-      <c r="E106" s="123">
+        <v>13.09976664578172</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>15.460460540374267</v>
+        <v>15.411490171507909</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.460460540374267</v>
-      </c>
-      <c r="H106" s="123">
+        <v>15.411490171507907</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>15.460460540374267</v>
-      </c>
-      <c r="I106" s="123">
+        <v>15.411490171507907</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>20.561873413335622</v>
+        <v>20.496744530337285</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11927,14 +11941,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F999640-9C11-4709-B122-9D92519655E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBE5486-7E6A-4C49-AD3E-964F755F20E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3276,9 +3276,7 @@
       <c r="B37" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3342,9 +3340,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3360,9 +3356,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -4155,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>73.849999999999994</v>
+        <v>73.75</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4196,7 +4190,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>565371.45717954997</v>
+        <v>564605.88987125002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4245,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4428,7 +4422,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.374177483548934</v>
+        <v>22.344578055853141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4490,20 +4484,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.199533291563441</v>
+        <v>26.206140238131479</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>47.142512419775748</v>
+        <v>47.154400725463276</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.822980343015814</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.99348906067457</v>
+        <v>41.003826717794155</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11526,17 +11520,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4694380418465442E-2</v>
+        <v>4.4753586194394526E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4694380418465442E-2</v>
+        <v>4.4753586194394526E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4694380418465442E-2</v>
+        <v>4.4753586194394526E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11647,14 +11641,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.99602305309606</v>
+        <v>62.011657087763176</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.99602305309606</v>
+        <v>62.011657087763176</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11725,21 +11719,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>235970660.9498643</v>
+        <v>236030167.56516045</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.822980343015818</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.822980343015818</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.99348906067457</v>
+        <v>41.003826717794155</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11788,27 +11782,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>235970660.9498643</v>
+        <v>236030167.56516045</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.199533291563441</v>
+        <v>26.206140238131479</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.822980343015818</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.822980343015814</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.822980343015814</v>
+        <v>30.830753221331154</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.99348906067457</v>
+        <v>41.003826717794155</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11910,27 +11904,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>117985330.47493215</v>
+        <v>118015083.78258023</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.09976664578172</v>
+        <v>13.103070119065739</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>15.411490171507909</v>
+        <v>15.415376610665577</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.411490171507907</v>
+        <v>15.415376610665577</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>15.411490171507907</v>
+        <v>15.415376610665577</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>20.496744530337285</v>
+        <v>20.501913358897077</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBE5486-7E6A-4C49-AD3E-964F755F20E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{519DCC74-7F37-4703-9CA4-D91CC70E3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,10 +964,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -992,6 +981,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="190">
+        <v>7655673083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="191" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>7655673083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>229</v>
-      </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>229</v>
+      <c r="C19" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>229</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>242</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,812 +3036,813 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>373709804</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>345708706</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>343360825</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>275320160</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>262321797</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <v>266450882</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>34880794+13975965</f>
         <v>48856759</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>28715439+12023970</f>
         <v>40739409</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="148">
         <f>28646188+10742475</f>
         <v>39388663</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148">
+        <v>14586346</v>
+      </c>
+      <c r="D28" s="148">
+        <v>12667099</v>
+      </c>
+      <c r="E28" s="148">
+        <v>12014891</v>
+      </c>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>3372815</v>
+      </c>
+      <c r="D29" s="148">
+        <v>1902422</v>
+      </c>
+      <c r="E29" s="148">
+        <v>1299556</v>
+      </c>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>25417</v>
+      </c>
+      <c r="D30" s="148">
+        <v>258783</v>
+      </c>
+      <c r="E30" s="148">
+        <v>444448</v>
+      </c>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>14586346</v>
-      </c>
-      <c r="D28" s="149">
-        <v>12667099</v>
-      </c>
-      <c r="E28" s="149">
-        <v>12014891</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>3372815</v>
-      </c>
-      <c r="D29" s="149">
-        <v>1902422</v>
-      </c>
-      <c r="E29" s="149">
-        <v>1299556</v>
-      </c>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>25417</v>
-      </c>
-      <c r="D30" s="149">
-        <v>258783</v>
-      </c>
-      <c r="E30" s="149">
-        <v>444448</v>
-      </c>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247"/>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>192</v>
+      </c>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151" t="str">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="151" t="str">
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>266</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3856,166 +3851,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>373709804</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>373709804</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>373709804</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>275320160</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>275320160</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>275320160</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>63443105</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>63443105</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>63443105</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3372815</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>3372815.0000000005</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>33889.333333333336</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4028,32 +4023,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4112,13 +4107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4129,82 +4124,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0300.HK : 美的集團</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>73.75</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>564605.88987125002</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>571113.21199179988</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4215,31 +4210,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4248,211 +4243,211 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.344578055853141</v>
+        <v>22.607046957365409</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4460,68 +4455,68 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.206140238131479</v>
-      </c>
-      <c r="D29" s="128">
+        <v>26.135328906866388</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>47.154400725463276</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>47.026985323575168</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="G29" s="286">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.003826717794155</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>40.893030716152325</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4529,9 +4524,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4539,17 +4534,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4557,26 +4552,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4584,9 +4579,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4599,16 +4594,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5560,10 +5555,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5589,59 +5584,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5649,19 +5644,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5710,928 +5705,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>373709804</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>345708706</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>343360825</v>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>8.099621882244401E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>6.8379408163410371E-3</v>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>275320160</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>262321797</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>266450882</v>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>98389644</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>83386909</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>76909943</v>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>48856759</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>40739409</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>39388663</v>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>14586346</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>12667099</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="196">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>12014891</v>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>345044</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>592597.33333333337</v>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>8.5723490573592909E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>7.2558631773635404E-2</v>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>29635357</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>24913791.666666668</v>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.17807420597857701</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.18951612811511689</v>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3372815</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1902422</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1299556</v>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>27732935</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>23614235.666666668</v>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>6.0165396152910305E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>5.1580365203281416E-2</v>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>23654876</v>
       </c>
@@ -6675,63 +6670,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13726998843312713</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.17441594940746688</v>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6777,11 +6772,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6828,266 +6823,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>263</v>
+      <c r="B30" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7134,165 +7129,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7338,63 +7333,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7407,372 +7402,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.75879430412724402</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.77600839292018831</v>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.15448412803350112</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.1497071018512377</v>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.5029623697124943E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>3.7848115025935179E-3</v>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>9.9807726566191824E-4</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>1.7258734549386446E-3</v>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>8.0220528203880412E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>6.8773820271041897E-2</v>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>267</v>
+      <c r="B47" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7784,216 +7779,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>250</v>
+      <c r="B52" s="101" t="s">
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8009,350 +8004,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10693825873363277</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>6.8597932386168292E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>5.5032736114953934E-2</v>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9631,7 +9626,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9649,7 +9644,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9667,25 +9662,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9693,12 +9688,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9706,28 +9701,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9740,7 +9735,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9749,16 +9744,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9766,7 +9761,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9776,287 +9771,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10067,21 +10062,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10094,45 +10089,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10140,17 +10135,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10160,19 +10155,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10182,17 +10177,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10201,7 +10196,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10211,17 +10206,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10234,7 +10229,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10244,17 +10239,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10281,12 +10276,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10296,171 +10291,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10468,25 +10463,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10494,26 +10489,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10521,113 +10516,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10635,17 +10630,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10655,16 +10650,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10674,16 +10669,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10693,14 +10688,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10713,7 +10708,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10723,14 +10718,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10743,13 +10738,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10757,12 +10752,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10773,63 +10768,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10837,45 +10832,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10883,61 +10878,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10951,35 +10946,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10993,29 +10988,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11029,9 +11024,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11039,28 +11034,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11074,29 +11069,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11110,29 +11105,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11142,66 +11137,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>373709804</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>373709804</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>373709804</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>275320160</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>275320160</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.73672180139004328</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>275320160</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.73672180139004328</v>
       </c>
@@ -11209,50 +11204,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>98389644</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>98389644</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>98389644</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>63443105</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>63443105</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.16976569605864555</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>63443105</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.16976569605864555</v>
       </c>
@@ -11260,60 +11255,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.0683554379893485E-5</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>33889.333333333336</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.0683554379893485E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>9.3421818996931277E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>34912649.666666664</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>9.3421818996931277E-2</v>
       </c>
@@ -11321,61 +11316,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3372815</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>3372815.0000000005</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>9.0252248239117653E-3</v>
       </c>
@@ -11383,59 +11378,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>8.4396594173019507E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>31539834.666666664</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>8.4396594173019507E-2</v>
       </c>
@@ -11443,184 +11438,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>23654876</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>6.3297445629764637E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>23654876</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>6.3297445629764637E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>3.0898492847777734</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4753586194394526E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>4.4233994908131888E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4753586194394526E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.4233994908131888E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4753586194394526E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>4.4233994908131888E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="206"/>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11628,53 +11623,53 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.011657087763176</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>61.844096052355546</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.011657087763176</v>
+        <v>61.844096052355546</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11686,123 +11681,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>236030167.56516045</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>235392392.97370449</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="I97" s="122">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.003826717794155</v>
+        <v>40.893030716152325</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>236030167.56516045</v>
-      </c>
-      <c r="D100" s="109">
+        <v>235392392.97370449</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.206140238131479</v>
-      </c>
-      <c r="E100" s="109">
+        <v>26.135328906866388</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="F100" s="109">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="H100" s="109">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.830753221331154</v>
-      </c>
-      <c r="I100" s="109">
+        <v>30.747445772783987</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.003826717794155</v>
+        <v>40.893030716152325</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11812,56 +11807,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="122">
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="109">
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11873,58 +11868,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>118015083.78258023</v>
-      </c>
-      <c r="D106" s="109">
+        <v>117696196.48685224</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>13.103070119065739</v>
-      </c>
-      <c r="E106" s="122">
+        <v>13.067664453433194</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>15.415376610665577</v>
-      </c>
-      <c r="F106" s="109">
+        <v>15.373722886391993</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>15.415376610665577</v>
-      </c>
-      <c r="H106" s="122">
+        <v>15.373722886391993</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.415376610665577</v>
-      </c>
-      <c r="I106" s="122">
+        <v>15.373722886391993</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.501913358897077</v>
+        <v>20.446515358076162</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11933,15 +11928,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{519DCC74-7F37-4703-9CA4-D91CC70E3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97277EAE-4B40-4839-9116-C1BBB4416CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -989,6 +989,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3833,11 +3850,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3851,10 +3868,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4076,8 +4093,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4090,8 +4110,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4134,60 +4154,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>74.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>571113.21199179988</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>575706.6158416</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4210,11 +4230,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4234,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4355,7 +4375,7 @@
         <v>251</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4367,20 +4387,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>256</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>9.3421818996931277E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4389,12 +4409,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>9.3421818996931277E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4405,10 +4425,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>9.0252248239117653E-3</v>
       </c>
@@ -4417,7 +4437,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.607046957365409</v>
+        <v>22.801632903698394</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4468,10 +4488,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4479,22 +4499,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.135328906866388</v>
+        <v>26.073524967269485</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>47.026985323575168</v>
+        <v>46.91577750328257</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.747445772783987</v>
-      </c>
-      <c r="G29" s="285">
+        <v>30.674735255611161</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.893030716152325</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>40.796328263723979</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5525,7 +5545,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7766,7 +7786,7 @@
       <c r="B47" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>264</v>
       </c>
       <c r="D47" s="36"/>
@@ -9693,7 +9713,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10740,7 +10760,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10757,7 +10777,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10866,11 +10886,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10881,11 +10901,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10897,11 +10917,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11115,19 +11135,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11137,18 +11157,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11515,17 +11535,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233994908131888E-2</v>
+        <v>4.3856508181824176E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233994908131888E-2</v>
+        <v>4.3856508181824176E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233994908131888E-2</v>
+        <v>4.3856508181824176E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11607,15 +11627,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11636,14 +11656,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.844096052355546</v>
+        <v>61.697849231033139</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.844096052355546</v>
+        <v>61.697849231033139</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11714,21 +11734,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>235392392.97370449</v>
+        <v>234835745.02453348</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.747445772783987</v>
+        <v>30.674735255611161</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.747445772783987</v>
+        <v>30.674735255611161</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.893030716152325</v>
+        <v>40.796328263723979</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11777,27 +11797,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>235392392.97370449</v>
+        <v>234835745.02453348</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.135328906866388</v>
+        <v>26.073524967269485</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.747445772783987</v>
+        <v>30.674735255611161</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>30.747445772783987</v>
+        <v>30.674735255611161</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.747445772783987</v>
+        <v>30.674735255611161</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.893030716152325</v>
+        <v>40.796328263723979</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11899,27 +11919,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>117696196.48685224</v>
+        <v>117417872.51226674</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>13.067664453433194</v>
+        <v>13.036762483634742</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>15.373722886391993</v>
+        <v>15.33736762780558</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>15.373722886391993</v>
+        <v>15.33736762780558</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.373722886391993</v>
+        <v>15.33736762780558</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.446515358076162</v>
+        <v>20.398164131861989</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97277EAE-4B40-4839-9116-C1BBB4416CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E88287-217C-4EEA-8A55-66B582FF494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4164,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>75.2</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>575706.6158416</v>
+        <v>571495.99564595008</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4254,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.801632903698394</v>
+        <v>22.670923938726325</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4499,20 +4499,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.073524967269485</v>
+        <v>26.063598912883641</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>46.91577750328257</v>
+        <v>46.897916912524842</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.796328263723979</v>
+        <v>40.780797315238999</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9664,7 +9664,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11535,17 +11535,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3856508181824176E-2</v>
+        <v>4.4109362401935741E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3856508181824176E-2</v>
+        <v>4.4109362401935741E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3856508181824176E-2</v>
+        <v>4.4109362401935741E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11656,14 +11656,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.697849231033139</v>
+        <v>61.674361182994922</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.697849231033139</v>
+        <v>61.674361182994922</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11734,21 +11734,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>234835745.02453348</v>
+        <v>234746344.28643689</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.796328263723979</v>
+        <v>40.780797315238999</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11775,7 +11775,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11797,27 +11797,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>234835745.02453348</v>
+        <v>234746344.28643689</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.073524967269485</v>
+        <v>26.063598912883641</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.674735255611161</v>
+        <v>30.663057544568989</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.796328263723979</v>
+        <v>40.780797315238999</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11919,27 +11919,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>117417872.51226674</v>
+        <v>117373172.14321844</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>13.036762483634742</v>
+        <v>13.031799456441821</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>15.33736762780558</v>
+        <v>15.331528772284495</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>15.33736762780558</v>
+        <v>15.331528772284495</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.33736762780558</v>
+        <v>15.331528772284495</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>20.398164131861989</v>
+        <v>20.3903986576195</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DE4523-1565-4D78-B784-FDE9D913AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{594E6146-7AE0-4564-8B21-1C3A114C8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.25</v>
+        <v>76.5</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>583745.07257874997</v>
+        <v>585658.99084950006</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4598,7 +4598,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.195327709024056</v>
+        <v>23.272836536510461</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4717,20 +4717,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>31.47544256805498</v>
+        <v>25.876886301363811</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>50.530653239526657</v>
+        <v>46.561952851274299</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.939698469153619</v>
+        <v>40.488654653282005</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11767,17 +11767,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3112130707726695E-2</v>
+        <v>4.2968548265751721E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3112130707726695E-2</v>
+        <v>4.2968548265751721E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3112130707726695E-2</v>
+        <v>4.2968548265751721E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11881,21 +11881,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.317898489047771</v>
+        <v>61.232542649845151</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.317898489047771</v>
+        <v>61.232542649845151</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11966,21 +11966,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>283489056.99267167</v>
+        <v>233064684.62259099</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>43.939698469153619</v>
+        <v>40.488654653282005</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12030,23 +12030,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>31.47544256805498</v>
+        <v>25.876886301363811</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>37.029932433005861</v>
+        <v>30.443395648663309</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>43.939698469153619</v>
+        <v>40.488654653282005</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12140,23 +12140,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>15.73772128402749</v>
+        <v>12.938443150681906</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>18.514966216502931</v>
+        <v>15.221697824331654</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>18.514966216502931</v>
+        <v>15.221697824331654</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>18.514966216502931</v>
+        <v>15.221697824331654</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>21.969849234576809</v>
+        <v>20.244327326641002</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{594E6146-7AE0-4564-8B21-1C3A114C8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5154CB11-1468-4477-8227-1448966F0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>283</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4282,7 +4283,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4305,6 +4306,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4323,8 +4327,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4360,24 +4364,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4387,7 +4394,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
@@ -4416,11 +4423,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>585658.99084950006</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>582596.72161629994</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4443,11 +4450,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,10 +4522,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4565,7 +4572,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4655,7 +4662,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.272836536510461</v>
+        <v>23.151148502332628</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4706,10 +4713,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4717,22 +4724,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>25.876886301363811</v>
+        <v>28.366953929641916</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>46.561952851274299</v>
+        <v>52.415165771059925</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.443395648663309</v>
-      </c>
-      <c r="G29" s="312">
+        <v>33.372886976049315</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.488654653282005</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>45.578405018312985</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5714,15 +5721,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5750,7 +5758,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11767,17 +11775,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2968548265751721E-2</v>
+        <v>4.3194401344678147E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2968548265751721E-2</v>
+        <v>4.3194401344678147E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2968548265751721E-2</v>
+        <v>4.3194401344678147E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11877,7 +11885,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11888,14 +11896,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.232542649845151</v>
+        <v>67.12479608690191</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.232542649845151</v>
+        <v>67.12479608690191</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11966,21 +11974,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>233064684.62259099</v>
+        <v>255491912.52454203</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.443395648663309</v>
+        <v>33.372886976049315</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.443395648663309</v>
+        <v>33.372886976049315</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.488654653282005</v>
+        <v>45.578405018312985</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12030,23 +12038,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>25.876886301363811</v>
+        <v>28.366953929641916</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.443395648663309</v>
+        <v>33.372886976049315</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>30.443395648663309</v>
+        <v>33.372886976049315</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>30.443395648663309</v>
+        <v>33.372886976049315</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.488654653282005</v>
+        <v>45.578405018312985</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12140,23 +12148,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>12.938443150681906</v>
+        <v>14.183476964820958</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>15.221697824331654</v>
+        <v>16.686443488024658</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.221697824331654</v>
+        <v>16.686443488024658</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>15.221697824331654</v>
+        <v>16.686443488024658</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>20.244327326641002</v>
+        <v>22.789202509156492</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5154CB11-1468-4477-8227-1448966F0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22674C72-BBAC-4C65-B91D-F174BD216060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4364,21 +4364,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4394,40 +4394,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>582596.72161629994</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4450,11 +4450,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4605,7 +4605,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4713,10 +4713,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4724,22 +4724,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.366953929641916</v>
+        <v>31.271253926438288</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>52.415165771059925</v>
+        <v>54.289580678949442</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.372886976049315</v>
-      </c>
-      <c r="G29" s="313">
+        <v>36.789710501692106</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.578405018312985</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>47.208331025173429</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5722,15 +5722,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11103,7 +11103,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11114,11 +11114,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11130,11 +11130,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11889,21 +11889,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.12479608690191</v>
+        <v>64.345433603150113</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.12479608690191</v>
+        <v>64.345433603150113</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11974,21 +11974,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>255491912.52454203</v>
+        <v>281649996.41916668</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>33.372886976049315</v>
+        <v>36.789710501692106</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>33.372886976049315</v>
+        <v>36.789710501692106</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>45.578405018312985</v>
+        <v>47.208331025173429</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12038,23 +12038,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.366953929641916</v>
+        <v>31.271253926438288</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>33.372886976049315</v>
+        <v>36.789710501692106</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>33.372886976049315</v>
+        <v>36.789710501692106</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>33.372886976049315</v>
+        <v>36.789710501692106</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.578405018312985</v>
+        <v>47.208331025173429</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12148,23 +12148,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>14.183476964820958</v>
+        <v>15.635626963219144</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>16.686443488024658</v>
+        <v>18.394855250846053</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>16.686443488024658</v>
+        <v>18.394855250846053</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>16.686443488024658</v>
+        <v>18.394855250846053</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>22.789202509156492</v>
+        <v>23.604165512586714</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADB0ABC-EF5E-412B-B2C9-B45F3ECD5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A250A96B-B515-4C03-94DA-EC6192B63FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4394,27 +4394,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.099999999999994</v>
+        <v>75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4424,7 +4424,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
@@ -4453,11 +4453,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>582596.72161629994</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>574175.481225</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4480,11 +4480,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4504,7 +4504,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.151873178833327</v>
+        <v>22.804259443315161</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4743,10 +4743,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4754,22 +4754,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>31.530697269771643</v>
+        <v>31.628340874707909</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>54.841437371632466</v>
+        <v>55.011269189782155</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>37.094937964437229</v>
-      </c>
-      <c r="G29" s="313">
+        <v>37.209812793774013</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>47.688206410115193</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>47.835886251984483</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5752,15 +5752,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11907,17 +11907,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.319304931724717E-2</v>
+        <v>4.3851456894959152E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.319304931724717E-2</v>
+        <v>4.3851456894959152E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.319304931724717E-2</v>
+        <v>4.3851456894959152E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12028,14 +12028,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>64.879278343162966</v>
+        <v>65.080195137640686</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>64.879278343162966</v>
+        <v>65.080195137640686</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12106,21 +12106,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>283986718.08989692</v>
+        <v>284866162.22876477</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.094937964437229</v>
+        <v>37.209812793774013</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.094937964437229</v>
+        <v>37.209812793774013</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>47.688206410115193</v>
+        <v>47.835886251984483</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12170,23 +12170,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>31.530697269771643</v>
+        <v>31.628340874707909</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>37.094937964437229</v>
+        <v>37.209812793774013</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>37.094937964437229</v>
+        <v>37.209812793774013</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>37.094937964437229</v>
+        <v>37.209812793774013</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>47.688206410115193</v>
+        <v>47.835886251984483</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12280,23 +12280,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>15.765348634885822</v>
+        <v>15.814170437353955</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>18.547468982218614</v>
+        <v>18.604906396887007</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>18.547468982218614</v>
+        <v>18.604906396887007</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>18.547468982218614</v>
+        <v>18.604906396887007</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>23.844103205057596</v>
+        <v>23.917943125992242</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0300.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0300.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A250A96B-B515-4C03-94DA-EC6192B63FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF08C14-9F21-43F4-8681-B3071D4D1D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4394,27 +4394,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0300.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4424,40 +4424,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>美的集團</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>7655673083</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>574175.481225</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>574941.04853329994</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4480,11 +4480,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4504,7 +4504,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.804259443315161</v>
+        <v>22.898385880890679</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4743,10 +4743,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4754,22 +4754,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>31.628340874707909</v>
+        <v>31.518546333794994</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>55.011269189782155</v>
+        <v>54.82030321184309</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>37.209812793774013</v>
-      </c>
-      <c r="G29" s="314">
+        <v>37.080642745641171</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>47.835886251984483</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>47.669828879863559</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5752,15 +5752,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11235,7 +11235,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11246,11 +11246,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11262,11 +11262,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11907,17 +11907,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3851456894959152E-2</v>
+        <v>4.3671200459353209E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3851456894959152E-2</v>
+        <v>4.3671200459353209E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3851456894959152E-2</v>
+        <v>4.3671200459353209E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12028,14 +12028,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>65.080195137640686</v>
+        <v>64.85427591614355</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>65.080195137640686</v>
+        <v>64.85427591614355</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12106,21 +12106,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>284866162.22876477</v>
+        <v>283877278.56814432</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.209812793774013</v>
+        <v>37.080642745641171</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.209812793774013</v>
+        <v>37.080642745641171</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>47.835886251984483</v>
+        <v>47.669828879863559</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12170,23 +12170,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>31.628340874707909</v>
+        <v>31.518546333794994</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>37.209812793774013</v>
+        <v>37.080642745641171</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>37.209812793774013</v>
+        <v>37.080642745641171</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>37.209812793774013</v>
+        <v>37.080642745641171</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>47.835886251984483</v>
+        <v>47.669828879863559</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12280,23 +12280,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>15.814170437353955</v>
+        <v>15.759273166897497</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>18.604906396887007</v>
+        <v>18.540321372820586</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>18.604906396887007</v>
+        <v>18.540321372820586</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>18.604906396887007</v>
+        <v>18.540321372820586</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>23.917943125992242</v>
+        <v>23.834914439931779</v>
       </c>
       <c r="K106" s="75"/>
     </row>
